--- a/P1/DIU-P1.xlsx
+++ b/P1/DIU-P1.xlsx
@@ -463,6 +463,12 @@
     <t>Enter score</t>
   </si>
   <si>
+    <t>Usability review</t>
+  </si>
+  <si>
+    <t>Usability guidelines</t>
+  </si>
+  <si>
     <t>Very poor</t>
   </si>
   <si>
@@ -522,15 +528,21 @@
     <t>Los objetivos que persigue el usuario se cumplen además tiene muchas funcionalidades de las que se espera el usuario.</t>
   </si>
   <si>
-    <t>Usability review</t>
-  </si>
-  <si>
     <t>Las características y la funcionalidad son compatibles con los flujos de trabajo deseados por los usuarios.</t>
   </si>
   <si>
     <t>Estan bien definidos los pasos, pero me falta fijar la fecha o periodos de tiempo, no se si este paso viene despues de realizar el pago</t>
   </si>
   <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Features and functionality meet common user goals and objectives.</t>
+  </si>
+  <si>
+    <t>Features and functionality support users desired workflows.</t>
+  </si>
+  <si>
     <t>Las tareas de uso frecuente están fácilmente disponibles (por ejemplo, fácilmente accesibles desde la página de inicio) y están bien soportadas (por ejemplo, los accesos directos están disponibles).</t>
   </si>
   <si>
@@ -555,6 +567,921 @@
     <t>La página de inicio proporciona una instantánea clara y una descripción general del contenido, las características y la funcionalidad disponible.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Features and functionality meet common user goals and objectives
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Key and common user goals and objectives (e.g. carry out some transaction, find some information, carry out some research etc…) should have been identified and addressed. Ideally the site or application should allow users to meet all of their key goals and objectives.</t>
+    </r>
+  </si>
+  <si>
+    <t>Very high</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Features and functionality support users desired workflows
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The site or application should support or at least be compatible with the way that users wish to work. For example, users might want to be able to carry out bulk transactions or be able to save and return to their work. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Frequently-used tasks are readily available (e.g. easily accessible from the homepage) and well supported
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example short cuts and a login to retrieve details might be provided to speed up the completion of frequently carried out tasks.</t>
+    </r>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users are adequately supported according to their level of expertise
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, novice users are given help and instructions and features are progressively disclosed (e.g. advanced features not being shown by default).</t>
+    </r>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Calls to action (e.g. register, add to basket, submit) are clear, well labelled and appear clickable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Possible actions should always be clear and the primary call to action (i.e. the most common or desirable user action) should stand out on the page or screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The Homepage / starting page provides a clear snapshot and overview of the content, features and functionality available
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, an introduction and overview of the site is provided together with section snapshots and example content.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The homepage / starting page is effective in orienting and directing users to their desired information and tasks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Users should be able to work out where they need to go to complete a given task (e.g. carry out some research, complete a transaction).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The homepage / starting page layout is clear and uncluttered with sufficient 'white space'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Users should be able to quickly scan the homepage and make sense of both the content available and of how the site is structured.</t>
+    </r>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users can easily access the site or application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, the URL is predictable and is returned by search engines. If a user attempts to find the site via a search engine, it should ideally be returned on the first page of search results for likely queries.</t>
+    </r>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The navigational scheme is easy to find, intuitive and consistent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Users should be able to very easily locate and use the navigational scheme (e.g. left hand menu, top menu, tabbed menu), and it should not be significantly different across the site or application (unless a decision has been made to specifically differentiate a given section or area).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The navigation has sufficient flexibility to allow users to navigate by their desired means
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example a user might want to be able to search for an item or browse by size, name or type. Although not all user preferences can or indeed should be addressed, the most useful and common navigational means should be supported.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The site or application structure is clear, easily understood and addresses common user goals
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, gathering information, submitting data, carrying out research. Users should be able to work out where they need to go to carry out common user goals and be able to quickly gain an understanding of how the site or application is structured.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Links are clear, descriptive and well labelled
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Links should be clearly 'clickable' (e.g. underlined or colourised) and it should be clear to users where any given link goes to. Non-descriptive links such as 'click here' should be avoided and any links going to an external website or opening a new window should be identified as such.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Browser standard functions (e.g. 'back', 'forward', 'bookmark') are supported
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users should be able to bookmark a page (or be presented with a URL to use) and go back and forth without breaking the site or losing any information they have entered.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The current location is clearly indicated (e.g. breadcrumb, highlighted menu item)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Users should always know where they are in the site or application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users can easily get back to the homepage or a relevant start point
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, a homepage link might be part of the breadcrumb or a home link might be available as part of the header.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">A clear and well structure site map or index is provided (where necessary)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>The sitemap might be part of the header or footer and should ideally be available from every page on the site.</t>
+    </r>
+  </si>
+  <si>
+    <t>Very low</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">A consistent, easy to find and easy to use search function is available throughout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>The search function (where required) should be directly available from most pages on the site or application and should be consistently positioned (e.g. top left, top right or top centre).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The search interface is appropriate to meet user goals
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example users are able to filter search results, an advanced search is available (if necessary) and common search conventions such as quotation marks (") and natural language searches are handled.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The search facility deals well with common searches, misspellings and abbreviations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Ideally synonyms (e.g. 'coat' should also match 'jacket') should mean that logical and appropriate search results are returned for common user queries. Popular search results (e.g. top matches) should also be identified for common queries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Search results are relevant, comprehensive, precise, and well displayed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>It should be easy for users to see what has been returned, to work out why something has been returned and to determine how many results there are.</t>
+    </r>
+  </si>
+  <si>
+    <t>Control &amp; feedback</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Prompt and  appropriate feedback is given
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, a confirmation message is shown following a successful transaction, input errors are promptly highlighted and it's made clear to users when a page has been updated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users can easily undo, go back and change, or cancel actions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>If an action can not be undo then users should at least be given the chance to confirm an action before committing (e.g. before placing an order). For example, users can return to a step and change their options or dynamically change a value without having to start again. Where an action can't be undone (e.g. a deletion), this should be made clear to users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users can easily give feedback
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, via email or an online feedback / contact us form. There should be an indication of how long users can expect to wait for a response if a query has been made.</t>
+    </r>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Complex forms and processes are broken up into readily understood steps and sections
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, a checkout process might be broken up in to 'address', 'delivery options', 'payment' and 'confirmation'. Where a process is used a progress indicator is present with clear numbers or named stages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">A minimal amount of information is requested and where necessary justification is given for asking for information
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example a site might outline that a telephone number is required in case there is an issue with a transaction. Users shouldn't be asked for extraneous information and where possible information should be auto populated (e.g. postcode lookup, code lookup) to keep input to a minimum.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Required and optional form fields are clearly indicated (e.g. using text or '*')
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Where most fields are required the optional fields should be identified and when most fields are optional the required fields should be identified.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Appropriate input fields are used and required formats are indicated
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Appropriate input fields might include calendar for date selection, drop downs for selection and radio button for small selections. Text might be used to indicate the required format or an example might be provided. Field lengths should correspond to the expected input so for example an email input field should be long, where as an initials input field should be very short.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Help and instructions (e.g. examples, information required) are provided where necessary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Where input is non trivial or is likely to require some explanation this should be provided. Where a-lot of explanation is necessary a link to a page outlining what is required should be provided.</t>
+    </r>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Errors are clear, easily identified and appear in appropriate locations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Errors should be immediately apparent to users and ideally be located close to the offending input or function (e.g. adjacent to an input entry field). Inputs causing an error should be highlighted, together with an explanation for the error.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Error messages are concise, written in easy to understand language and describe what's occurred and what action is necessary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Errors should avoid using very technical terms or jargon and should be written from the user's perspective.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Common user errors have been taken into consideration and where possible prevented
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Common user errors might be missing fields, invalid formats and invalid selections. For example, fields might limit input to particular a format (e.g. numbers only) or only become available once certain criteria have been met. JavaScript might also be utilised to provide immediate feedback for common formatting errors or errors caused by missing fields.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users are able to easily recover (i.e. not have to start again) from errors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example, users might be able to re-edit and resubmit a form or enter a different value.</t>
+    </r>
+  </si>
+  <si>
+    <t>Content &amp; text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Content available (e.g. text, images, video, audio) is appropriate and sufficiently relevant, and detailed to meet user goals
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Content should also be appropriately formatted, so for example videos and audio should be directly playable (i.e. shouldn't need to be downloaded to be played) and images should be of a sufficient quality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Links to other useful and relevant content (e.g. related pages, external websites or documents) are available and shown in context
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>For example there might be links from an article to related articles, related content or related external websites.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Language, terminology and tone used is appropriate and readily understood by the target audience
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Jargon should be kept to a minimum and plain language should be used where ever possible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Terms, language and tone used are consistent (e.g. the same term is used throughout)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Capitalisation (e.g. 'Main title'; 'Main Title'; 'MAIN TITLE') and grammar should be consistent, together with the use of formal or informal terms (e.g. could not vs couldn't; what's vs what is etc...).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Text and content is legible and scanable, with good typography and visual contrast
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Users should be able to quickly scan headers and body text, in order to get an overview of what's available.</t>
+    </r>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Online help is provided and is suitable for the user base
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Help should be written in easy to understand language and only uses recognised terms. Users should be able to easily find and access help and where appropriate contextual help should be available, such as help for a specific page, feature or process.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Online help is concise, easy to read and written in easy to understand language
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Help should cover the essentials without providing excessive detail and shouldn't use jargon or technical terminology that isn't likely to be understood by users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Accessing online help does not impede users
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Users should be able to resume work where they left off after accessing help. Ideally help should be available directly on a page or using a new window. If help is provided in the form of a document, it should be formatted for the  web (e.g. PDF, rather than a Word document).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Users can easily get further help (e.g. telephone or email address)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>If a telephone help number is provided the hours of operation should be shown. If an email address or online form is provided, an indication should be given of how long a response is likely to take (e.g. within the next 24 hrs).</t>
+    </r>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Site or application performance doesn't inhibit the user experience (e.g. slow page downloads, long delays)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Web page downloads shouldn't take longer than 5 seconds and on page interactions (e.g. using an application or AJAX functionality) shouldn't take any longer than 1 second to respond. Interactions taking longer than 1 second to respond should provide suitable feedback to show that something is taking place (e.g. an hour glass or swirling graphic).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Errors and reliability issues don't inhibit the user experience
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Sites and applications should be free of bugs and shouldn't have any broken links.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Possible user configurations (e.g. browsers, resolutions, computer specs) are supported
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Websites should be usable at a 800x600 screen resolution and should work with the most common browsers (IE, Firefox, Opera, Chrome etc…). Applications should be usable with common computer specifications (operation system, memory, available disk space) and screen resolutions (e.g. 800x600, 1025x768).</t>
+    </r>
+  </si>
+  <si>
+    <t>Frequently-used tasks are readily available (e.g. easily accessible from the homepage) and well supported (e.g. short cuts are available).</t>
+  </si>
+  <si>
+    <t>Users are adequately supported according to their level of expertise (e.g. short cuts for expert users, help and instructions for novice users).</t>
+  </si>
+  <si>
+    <t>Call to actions (e.g. register, add to basket, submit) are clear, well labelled and appear clickable.</t>
+  </si>
+  <si>
+    <t>The Homepage / starting page provides a clear snapshot and overview of the content, features and functionality available.</t>
+  </si>
+  <si>
+    <t>The home page / starting page is effective in orienting and directing users to their desired information and tasks.</t>
+  </si>
+  <si>
+    <t>The homepage / starting page layout is clear and uncluttered with sufficient 'white space'.</t>
+  </si>
+  <si>
+    <t>Users can easily access the site or application (e.g. the URL is predictable and is returned by search engines).</t>
+  </si>
+  <si>
     <t>Muestra información clara aunque es bastante redundante.</t>
   </si>
   <si>
@@ -568,9 +1495,6 @@
   </si>
   <si>
     <t>Hay partes que están como desencajadas ocupando los dos fondos que hay en mitad.</t>
-  </si>
-  <si>
-    <t>Navigation</t>
   </si>
   <si>
     <t>Los usuarios pueden acceder fácilmente al sitio o la aplicación (por ejemplo, la URL es predecible y es devuelta por los motores de búsqueda).</t>
@@ -612,955 +1536,121 @@
     </r>
   </si>
   <si>
-    <t>Features and functionality meet common user goals and objectives.</t>
-  </si>
-  <si>
-    <t>Features and functionality support users desired workflows.</t>
-  </si>
-  <si>
-    <t>Frequently-used tasks are readily available (e.g. easily accessible from the homepage) and well supported (e.g. short cuts are available).</t>
-  </si>
-  <si>
-    <t>Users are adequately supported according to their level of expertise (e.g. short cuts for expert users, help and instructions for novice users).</t>
-  </si>
-  <si>
-    <t>Call to actions (e.g. register, add to basket, submit) are clear, well labelled and appear clickable.</t>
-  </si>
-  <si>
-    <t>The Homepage / starting page provides a clear snapshot and overview of the content, features and functionality available.</t>
-  </si>
-  <si>
-    <t>The home page / starting page is effective in orienting and directing users to their desired information and tasks.</t>
-  </si>
-  <si>
-    <t>The homepage / starting page layout is clear and uncluttered with sufficient 'white space'.</t>
-  </si>
-  <si>
-    <t>Users can easily access the site or application (e.g. the URL is predictable and is returned by search engines).</t>
+    <t>La navegación tiene la flexibilidad suficiente para permitir que los usuarios naveguen por los medios deseados (por ejemplo, búsqueda, navegación por tipo, navegación por nombre, más reciente, etc.).</t>
+  </si>
+  <si>
+    <t>La navegación contiene los más tipicos ademas de navegación por ciudad y distancia a la que te encuentras.</t>
+  </si>
+  <si>
+    <t>La estructura del sitio o la aplicación es clara, fácil de entender y aborda objetivos comunes del usuario.</t>
+  </si>
+  <si>
+    <t>Toda la información es clara aunque la estructura es mejorable.</t>
+  </si>
+  <si>
+    <t>Los enlaces son claros, descriptivos y están bien etiquetados.</t>
+  </si>
+  <si>
+    <t>Debido al fondo de la página no se nota muy bien el etiquetado.</t>
+  </si>
+  <si>
+    <t>Rating below</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Rating ranges</t>
+  </si>
+  <si>
+    <t>Very Poor</t>
+  </si>
+  <si>
+    <t>less than</t>
   </si>
   <si>
     <t>The navigational scheme (e.g. menu) is easy to find, intuitive and consistent.</t>
   </si>
   <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>more than</t>
+  </si>
+  <si>
+    <t>Las funciones estándar del navegador (por ejemplo, 'atrás', 'adelante', 'marcador') son compatibles.</t>
+  </si>
+  <si>
+    <t>En algunas cuando retrocedes no te lleva a ningún sitio la página.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The navigation has sufficient flexibility to allow users to navigate by their desired means (e.g. searching, browse by type, browse by name, most recent etc…). </t>
   </si>
   <si>
+    <t>La ubicación actual está claramente indicada (por ejemplo, ruta de navegación, elemento de menú resaltado).</t>
+  </si>
+  <si>
     <t>The site or application structure is clear, easily understood and addresses common user goals.</t>
   </si>
   <si>
+    <t>La ruta de navegación no está clara cuando hace uso de los filtros para restringir la información.</t>
+  </si>
+  <si>
+    <t>Los usuarios pueden volver fácilmente a la página de inicio o a un punto de inicio relevante.</t>
+  </si>
+  <si>
     <t>Links are clear, descriptive and and well labelled.</t>
   </si>
   <si>
+    <t>Los usuarios pueden volver a la página principal pinchando en el logotipo en cualquier momento.</t>
+  </si>
+  <si>
     <t>Browser standard functions (e.g. 'back', 'forward', 'bookmark') are supported.</t>
   </si>
   <si>
+    <t>Se proporciona un mapa del sitio o índice claro y bien estructurado (cuando sea necesario)</t>
+  </si>
+  <si>
+    <t>Muestra un mapa de donde se hace el evento de forma clara.</t>
+  </si>
+  <si>
     <t>The current location is clearly indicated (e.g. breadcrumb, highlighted menu item).</t>
   </si>
   <si>
+    <t>Una función de búsqueda consistente, fácil de encontrar y fácil de usar está disponible en todas partes (cuando sea conveniente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La función de búsqueda es fácil de encontrar y reconocible al entorno. </t>
+  </si>
+  <si>
     <t>Users can easily get back to the homepage or a relevant start point.</t>
   </si>
   <si>
+    <t>La interfaz de búsqueda es adecuada para cumplir los objetivos del usuario (por ejemplo, parámetros múltiples, resultados priorizados, filtrado de resultados de búsqueda)</t>
+  </si>
+  <si>
+    <t>La interfaz de búsqueda  acepta muy pocos parámetros múltiples.</t>
+  </si>
+  <si>
     <t>A clear and well structure site map or index is provided (where necessary).</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>El servicio de búsqueda se ocupa de las búsquedas comunes (por ejemplo, muestra la mayoría de resultados populares), faltas de ortografía y abreviaturas.</t>
+  </si>
+  <si>
+    <t>El servicio de búsqueda muestra resultados predefinidos y no los más populares.</t>
   </si>
   <si>
     <t>A consitent, easy to find and easy to use search function is available throughout (where desirable).</t>
   </si>
   <si>
-    <t>Usability guidelines</t>
-  </si>
-  <si>
-    <t>Importance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Features and functionality meet common user goals and objectives
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Key and common user goals and objectives (e.g. carry out some transaction, find some information, carry out some research etc…) should have been identified and addressed. Ideally the site or application should allow users to meet all of their key goals and objectives.</t>
-    </r>
-  </si>
-  <si>
-    <t>Very high</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Features and functionality support users desired workflows
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The site or application should support or at least be compatible with the way that users wish to work. For example, users might want to be able to carry out bulk transactions or be able to save and return to their work. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Frequently-used tasks are readily available (e.g. easily accessible from the homepage) and well supported
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example short cuts and a login to retrieve details might be provided to speed up the completion of frequently carried out tasks.</t>
-    </r>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users are adequately supported according to their level of expertise
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, novice users are given help and instructions and features are progressively disclosed (e.g. advanced features not being shown by default).</t>
-    </r>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Calls to action (e.g. register, add to basket, submit) are clear, well labelled and appear clickable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Possible actions should always be clear and the primary call to action (i.e. the most common or desirable user action) should stand out on the page or screen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The Homepage / starting page provides a clear snapshot and overview of the content, features and functionality available
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, an introduction and overview of the site is provided together with section snapshots and example content.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The homepage / starting page is effective in orienting and directing users to their desired information and tasks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Users should be able to work out where they need to go to complete a given task (e.g. carry out some research, complete a transaction).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The homepage / starting page layout is clear and uncluttered with sufficient 'white space'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Users should be able to quickly scan the homepage and make sense of both the content available and of how the site is structured.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users can easily access the site or application
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, the URL is predictable and is returned by search engines. If a user attempts to find the site via a search engine, it should ideally be returned on the first page of search results for likely queries.</t>
-    </r>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The navigational scheme is easy to find, intuitive and consistent
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Users should be able to very easily locate and use the navigational scheme (e.g. left hand menu, top menu, tabbed menu), and it should not be significantly different across the site or application (unless a decision has been made to specifically differentiate a given section or area).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The navigation has sufficient flexibility to allow users to navigate by their desired means
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example a user might want to be able to search for an item or browse by size, name or type. Although not all user preferences can or indeed should be addressed, the most useful and common navigational means should be supported.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The site or application structure is clear, easily understood and addresses common user goals
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, gathering information, submitting data, carrying out research. Users should be able to work out where they need to go to carry out common user goals and be able to quickly gain an understanding of how the site or application is structured.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Links are clear, descriptive and well labelled
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Links should be clearly 'clickable' (e.g. underlined or colourised) and it should be clear to users where any given link goes to. Non-descriptive links such as 'click here' should be avoided and any links going to an external website or opening a new window should be identified as such.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Browser standard functions (e.g. 'back', 'forward', 'bookmark') are supported
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users should be able to bookmark a page (or be presented with a URL to use) and go back and forth without breaking the site or losing any information they have entered.  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The current location is clearly indicated (e.g. breadcrumb, highlighted menu item)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Users should always know where they are in the site or application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users can easily get back to the homepage or a relevant start point
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, a homepage link might be part of the breadcrumb or a home link might be available as part of the header.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">A clear and well structure site map or index is provided (where necessary)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>The sitemap might be part of the header or footer and should ideally be available from every page on the site.</t>
-    </r>
-  </si>
-  <si>
-    <t>Very low</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">A consistent, easy to find and easy to use search function is available throughout
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>The search function (where required) should be directly available from most pages on the site or application and should be consistently positioned (e.g. top left, top right or top centre).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The search interface is appropriate to meet user goals
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example users are able to filter search results, an advanced search is available (if necessary) and common search conventions such as quotation marks (") and natural language searches are handled.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">The search facility deals well with common searches, misspellings and abbreviations
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Ideally synonyms (e.g. 'coat' should also match 'jacket') should mean that logical and appropriate search results are returned for common user queries. Popular search results (e.g. top matches) should also be identified for common queries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Search results are relevant, comprehensive, precise, and well displayed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>It should be easy for users to see what has been returned, to work out why something has been returned and to determine how many results there are.</t>
-    </r>
-  </si>
-  <si>
-    <t>Control &amp; feedback</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Prompt and  appropriate feedback is given
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, a confirmation message is shown following a successful transaction, input errors are promptly highlighted and it's made clear to users when a page has been updated.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users can easily undo, go back and change, or cancel actions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>If an action can not be undo then users should at least be given the chance to confirm an action before committing (e.g. before placing an order). For example, users can return to a step and change their options or dynamically change a value without having to start again. Where an action can't be undone (e.g. a deletion), this should be made clear to users.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users can easily give feedback
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, via email or an online feedback / contact us form. There should be an indication of how long users can expect to wait for a response if a query has been made.</t>
-    </r>
-  </si>
-  <si>
-    <t>Forms</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Complex forms and processes are broken up into readily understood steps and sections
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, a checkout process might be broken up in to 'address', 'delivery options', 'payment' and 'confirmation'. Where a process is used a progress indicator is present with clear numbers or named stages.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">A minimal amount of information is requested and where necessary justification is given for asking for information
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example a site might outline that a telephone number is required in case there is an issue with a transaction. Users shouldn't be asked for extraneous information and where possible information should be auto populated (e.g. postcode lookup, code lookup) to keep input to a minimum.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Required and optional form fields are clearly indicated (e.g. using text or '*')
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Where most fields are required the optional fields should be identified and when most fields are optional the required fields should be identified.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Appropriate input fields are used and required formats are indicated
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Appropriate input fields might include calendar for date selection, drop downs for selection and radio button for small selections. Text might be used to indicate the required format or an example might be provided. Field lengths should correspond to the expected input so for example an email input field should be long, where as an initials input field should be very short.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Help and instructions (e.g. examples, information required) are provided where necessary
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Where input is non trivial or is likely to require some explanation this should be provided. Where a-lot of explanation is necessary a link to a page outlining what is required should be provided.</t>
-    </r>
-  </si>
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Errors are clear, easily identified and appear in appropriate locations
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Errors should be immediately apparent to users and ideally be located close to the offending input or function (e.g. adjacent to an input entry field). Inputs causing an error should be highlighted, together with an explanation for the error.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Error messages are concise, written in easy to understand language and describe what's occurred and what action is necessary
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Errors should avoid using very technical terms or jargon and should be written from the user's perspective.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Common user errors have been taken into consideration and where possible prevented
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Common user errors might be missing fields, invalid formats and invalid selections. For example, fields might limit input to particular a format (e.g. numbers only) or only become available once certain criteria have been met. JavaScript might also be utilised to provide immediate feedback for common formatting errors or errors caused by missing fields.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users are able to easily recover (i.e. not have to start again) from errors
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example, users might be able to re-edit and resubmit a form or enter a different value.</t>
-    </r>
-  </si>
-  <si>
-    <t>Content &amp; text</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Content available (e.g. text, images, video, audio) is appropriate and sufficiently relevant, and detailed to meet user goals
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Content should also be appropriately formatted, so for example videos and audio should be directly playable (i.e. shouldn't need to be downloaded to be played) and images should be of a sufficient quality.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Links to other useful and relevant content (e.g. related pages, external websites or documents) are available and shown in context
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>For example there might be links from an article to related articles, related content or related external websites.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Language, terminology and tone used is appropriate and readily understood by the target audience
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Jargon should be kept to a minimum and plain language should be used where ever possible.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Terms, language and tone used are consistent (e.g. the same term is used throughout)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Capitalisation (e.g. 'Main title'; 'Main Title'; 'MAIN TITLE') and grammar should be consistent, together with the use of formal or informal terms (e.g. could not vs couldn't; what's vs what is etc...).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Text and content is legible and scanable, with good typography and visual contrast
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Users should be able to quickly scan headers and body text, in order to get an overview of what's available.</t>
-    </r>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Online help is provided and is suitable for the user base
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Help should be written in easy to understand language and only uses recognised terms. Users should be able to easily find and access help and where appropriate contextual help should be available, such as help for a specific page, feature or process.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Online help is concise, easy to read and written in easy to understand language
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Help should cover the essentials without providing excessive detail and shouldn't use jargon or technical terminology that isn't likely to be understood by users.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Accessing online help does not impede users
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Users should be able to resume work where they left off after accessing help. Ideally help should be available directly on a page or using a new window. If help is provided in the form of a document, it should be formatted for the  web (e.g. PDF, rather than a Word document).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Users can easily get further help (e.g. telephone or email address)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>If a telephone help number is provided the hours of operation should be shown. If an email address or online form is provided, an indication should be given of how long a response is likely to take (e.g. within the next 24 hrs).</t>
-    </r>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Site or application performance doesn't inhibit the user experience (e.g. slow page downloads, long delays)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Web page downloads shouldn't take longer than 5 seconds and on page interactions (e.g. using an application or AJAX functionality) shouldn't take any longer than 1 second to respond. Interactions taking longer than 1 second to respond should provide suitable feedback to show that something is taking place (e.g. an hour glass or swirling graphic).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Errors and reliability issues don't inhibit the user experience
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Sites and applications should be free of bugs and shouldn't have any broken links.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Possible user configurations (e.g. browsers, resolutions, computer specs) are supported
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Websites should be usable at a 800x600 screen resolution and should work with the most common browsers (IE, Firefox, Opera, Chrome etc…). Applications should be usable with common computer specifications (operation system, memory, available disk space) and screen resolutions (e.g. 800x600, 1025x768).</t>
-    </r>
+    <t>Los resultados de búsqueda son relevantes, exhaustivos, precisos y se muestran bien</t>
+  </si>
+  <si>
+    <t>La información que se muestra es relevante  y precisa</t>
   </si>
   <si>
     <t>The search interface is appropriate to meet user goals (e.g. multi-parameter, prioritised results, filtering search results).</t>
@@ -1587,154 +1677,7 @@
     <t>A minimal amount of information is requested and where required justification is given for asking for information (e.g. date of birth, telephone number).</t>
   </si>
   <si>
-    <t>La navegación tiene la flexibilidad suficiente para permitir que los usuarios naveguen por los medios deseados (por ejemplo, búsqueda, navegación por tipo, navegación por nombre, más reciente, etc.).</t>
-  </si>
-  <si>
-    <t>La navegación contiene los más tipicos ademas de navegación por ciudad y distancia a la que te encuentras.</t>
-  </si>
-  <si>
-    <t>La estructura del sitio o la aplicación es clara, fácil de entender y aborda objetivos comunes del usuario.</t>
-  </si>
-  <si>
-    <t>Toda la información es clara aunque la estructura es mejorable.</t>
-  </si>
-  <si>
-    <t>Rating below</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Rating ranges</t>
-  </si>
-  <si>
-    <t>Very Poor</t>
-  </si>
-  <si>
-    <t>less than</t>
-  </si>
-  <si>
-    <t>between</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>more than</t>
-  </si>
-  <si>
-    <t>Los enlaces son claros, descriptivos y están bien etiquetados.</t>
-  </si>
-  <si>
-    <t>Debido al fondo de la página no se nota muy bien el etiquetado.</t>
-  </si>
-  <si>
-    <t>Las funciones estándar del navegador (por ejemplo, 'atrás', 'adelante', 'marcador') son compatibles.</t>
-  </si>
-  <si>
-    <t>En algunas cuando retrocedes no te lleva a ningún sitio la página.</t>
-  </si>
-  <si>
-    <t>La ubicación actual está claramente indicada (por ejemplo, ruta de navegación, elemento de menú resaltado).</t>
-  </si>
-  <si>
-    <t>La ruta de navegación no está clara cuando hace uso de los filtros para restringir la información.</t>
-  </si>
-  <si>
     <t>Required and optional form fields are clearly indicated.</t>
-  </si>
-  <si>
-    <t>Appropriate input fields (e.g. calendar for date selection, drop down for selection) are used and required formats are indicated.</t>
-  </si>
-  <si>
-    <t>Help and instructions (e.g. examples, information required) are provided where necessary.</t>
-  </si>
-  <si>
-    <t>Errors are clear, easily identifiable and appear in appropriate location (e.g. adjacent to data entry field, adjacent to form, etc.).</t>
-  </si>
-  <si>
-    <t>Error messages are concise, written in easy to understand language and describe what's occurred and what action is necessary.</t>
-  </si>
-  <si>
-    <t>Common user errors (e.g. missing fields, invalid formats, invalid selections) have been taken into consideration and where possible prevented.</t>
-  </si>
-  <si>
-    <t>Users are able to easily recover (i.e. not have to start again) from errors.</t>
-  </si>
-  <si>
-    <t>Content available (e.g. text, images, video) is appropriate and sufficiently relevant, and detailed to meet user goals.</t>
-  </si>
-  <si>
-    <t>Links to other useful and relevant content (e.g. related pages or external websites) are available and shown in context.</t>
-  </si>
-  <si>
-    <t>Language, terminology and tone used is appropriate and readily understood by the target audience.</t>
-  </si>
-  <si>
-    <t>Terms, language and tone used are consitent (e.g. the same term is used throughout).</t>
-  </si>
-  <si>
-    <t>Text and content is legible and scanable, with good typography and visual contrast.</t>
-  </si>
-  <si>
-    <t>Online help is provided and is suitable for the user base (e.g. is written in easy to understand langugage and only uses recognised terms). Where appropriate contextual help is provided.</t>
-  </si>
-  <si>
-    <t>Online help is concise, easy to read and written in easy to understand language.</t>
-  </si>
-  <si>
-    <t>Accessing online help does not impede users (i.e. they can can resume work where they left off after accessing help).</t>
-  </si>
-  <si>
-    <t>Users can easily get further help (e.g. telephone or email address).</t>
-  </si>
-  <si>
-    <t>Site or application performance doesn't inhibit the user experience (e.g. slow page downloads, long delays).</t>
-  </si>
-  <si>
-    <t>Errors and reliabilty issues don't inhibit the user experience.</t>
-  </si>
-  <si>
-    <t>Possible user configurations (e.g. browsers, resolutions, computer specs) are supported.</t>
-  </si>
-  <si>
-    <t>Overall usability score (out of 100) *</t>
-  </si>
-  <si>
-    <t>Los usuarios pueden volver fácilmente a la página de inicio o a un punto de inicio relevante.</t>
-  </si>
-  <si>
-    <t>Los usuarios pueden volver a la página principal pinchando en el logotipo en cualquier momento.</t>
-  </si>
-  <si>
-    <t>Se proporciona un mapa del sitio o índice claro y bien estructurado (cuando sea necesario)</t>
-  </si>
-  <si>
-    <t>Muestra un mapa de donde se hace el evento de forma clara.</t>
-  </si>
-  <si>
-    <t>Una función de búsqueda consistente, fácil de encontrar y fácil de usar está disponible en todas partes (cuando sea conveniente)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La función de búsqueda es fácil de encontrar y reconocible al entorno. </t>
-  </si>
-  <si>
-    <t>La interfaz de búsqueda es adecuada para cumplir los objetivos del usuario (por ejemplo, parámetros múltiples, resultados priorizados, filtrado de resultados de búsqueda)</t>
-  </si>
-  <si>
-    <t>La interfaz de búsqueda  acepta muy pocos parámetros múltiples.</t>
-  </si>
-  <si>
-    <t>El servicio de búsqueda se ocupa de las búsquedas comunes (por ejemplo, muestra la mayoría de resultados populares), faltas de ortografía y abreviaturas.</t>
-  </si>
-  <si>
-    <t>El servicio de búsqueda muestra resultados predefinidos y no los más populares.</t>
-  </si>
-  <si>
-    <t>Los resultados de búsqueda son relevantes, exhaustivos, precisos y se muestran bien</t>
-  </si>
-  <si>
-    <t>La información que se muestra es relevante  y precisa</t>
   </si>
   <si>
     <t xml:space="preserve">Se proporciona una respuesta rápida y apropiada (por ejemplo, después de una acción exitosa o no exitosa).
@@ -1744,6 +1687,9 @@
     <t>Se ve claramente que estamos en otro paso, por lo que se entiende que el anterior paso está bien</t>
   </si>
   <si>
+    <t>Appropriate input fields (e.g. calendar for date selection, drop down for selection) are used and required formats are indicated.</t>
+  </si>
+  <si>
     <t>Los usuarios pueden fácilmente deshacer, volver atrás y cambiar o cancelar acciones; o al menos tienen la oportunidad de confirmar una acción antes de cometer (por ejemplo, antes de realizar un pedido)</t>
   </si>
   <si>
@@ -1754,16 +1700,25 @@
     <t>Los usuarios pueden enviar comentarios (por ejemplo, por correo electrónico o mediante un formulario de comentarios / contacto en línea)</t>
   </si>
   <si>
+    <t>Help and instructions (e.g. examples, information required) are provided where necessary.</t>
+  </si>
+  <si>
     <t>No dan ningún correo electrónico ni ningún formulario de comantarios.Existe un chats e ayuda como servicio tecnico.</t>
   </si>
   <si>
     <t>Los formularios y los procesos complejos se dividen en pasos y secciones fácilmente comprensibles. Cuando se utiliza un proceso, hay un indicador de progreso con números claros o etapas con nombre.</t>
   </si>
   <si>
+    <t>Errors are clear, easily identifiable and appear in appropriate location (e.g. adjacent to data entry field, adjacent to form, etc.).</t>
+  </si>
+  <si>
     <t xml:space="preserve"> El formulario que hemos creado de prueba se dividia en varias secciones faciles y bastantes intuitivas.</t>
   </si>
   <si>
     <t>Se solicita una cantidad mínima de información y, cuando se proporciona la justificación necesaria para solicitar información (por ejemplo, fecha de nacimiento, número de teléfono)</t>
+  </si>
+  <si>
+    <t>Error messages are concise, written in easy to understand language and describe what's occurred and what action is necessary.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1776,12 +1731,18 @@
     <t>Los campos de formulario requeridos y opcionales están claramente indicados</t>
   </si>
   <si>
+    <t>Common user errors (e.g. missing fields, invalid formats, invalid selections) have been taken into consideration and where possible prevented.</t>
+  </si>
+  <si>
     <t>Los campos de los formularios para el registro de la página están claramente indicados.</t>
   </si>
   <si>
     <t>Se utilizan los campos de entrada apropiados (por ejemplo, el calendario para la selección de la fecha, el menú desplegable para la selección) y se indican los formatos requeridos</t>
   </si>
   <si>
+    <t>Users are able to easily recover (i.e. not have to start again) from errors.</t>
+  </si>
+  <si>
     <t>Te permite sellecionar a traves de un buscador los temas, pero esto no permite explorar todas las posibilidades existentes</t>
   </si>
   <si>
@@ -1791,12 +1752,21 @@
     <t>En algunos apartados te ponen un ejemplo de referencia</t>
   </si>
   <si>
+    <t>Content available (e.g. text, images, video) is appropriate and sufficiently relevant, and detailed to meet user goals.</t>
+  </si>
+  <si>
+    <t>Links to other useful and relevant content (e.g. related pages or external websites) are available and shown in context.</t>
+  </si>
+  <si>
     <t>Los errores son claros, fácilmente identificables y aparecen en la ubicación apropiada (por ejemplo, adyacente al campo de entrada de datos, adyacente al formulario, etc.).</t>
   </si>
   <si>
     <t>Cuando creas una quedada, no te suelen salir mensajes de error, mas bien lo que hacen es no dejarte pasar al siguiente paso, pero en algunos casisos si te da mas información</t>
   </si>
   <si>
+    <t>Language, terminology and tone used is appropriate and readily understood by the target audience.</t>
+  </si>
+  <si>
     <t>Los mensajes de error son concisos, están escritos en un lenguaje fácil de entender y describen qué ocurrió y qué acción es necesaria</t>
   </si>
   <si>
@@ -1815,9 +1785,15 @@
     <t>Creando uno de los eventos, se me ha salido y se te guarda el evento, en tu perfil para continuarlo mas tarde, y te recuerda constamente que termines tu evento  y te sale una pestaña en la parte superior que te lleva directamente al paso en el que te quedastes ( llega a ser unpoco pesado estos mensajes si no quieres continuar con el evento en ese momento).</t>
   </si>
   <si>
+    <t>Terms, language and tone used are consitent (e.g. the same term is used throughout).</t>
+  </si>
+  <si>
     <t>El contenido disponible (por ejemplo, texto, imágenes, video) es apropiado y suficientemente relevante, y detallado para cumplir con los objetivos del usuario</t>
   </si>
   <si>
+    <t>Text and content is legible and scanable, with good typography and visual contrast.</t>
+  </si>
+  <si>
     <t>Todo el contenido que muestra es relevante y se encuentra en el context de la página.</t>
   </si>
   <si>
@@ -1827,15 +1803,24 @@
     <t>No muestra enlaces a otros contenidos ni relevantes.</t>
   </si>
   <si>
+    <t>Online help is provided and is suitable for the user base (e.g. is written in easy to understand langugage and only uses recognised terms). Where appropriate contextual help is provided.</t>
+  </si>
+  <si>
     <t>El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
   </si>
   <si>
+    <t>Online help is concise, easy to read and written in easy to understand language.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El lenguajes usado en la página son comprensible y el tono usado es apropiado.  </t>
   </si>
   <si>
     <t>Los términos, el idioma y el tono utilizados son consistentes (por ejemplo, el mismo término se usa en todo)</t>
   </si>
   <si>
+    <t>Accessing online help does not impede users (i.e. they can can resume work where they left off after accessing help).</t>
+  </si>
+  <si>
     <t>El idioma en el que se está usando (Castellano) el tono usado es consistente.</t>
   </si>
   <si>
@@ -1845,12 +1830,18 @@
     <t xml:space="preserve">El contraste visual de la pagina es mejorable ya que no usan buenos colores para ello. </t>
   </si>
   <si>
+    <t>Users can easily get further help (e.g. telephone or email address).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se proporciona ayuda en línea y contextual y es adecuada para la base de usuarios (por ejemplo, está escrita en un lenguaje fácil de entender y solo usa términos reconocidos). </t>
   </si>
   <si>
     <t>La ayuda que se da es bastante pobre y además da problemas a la hora de cambiar el idioma.</t>
   </si>
   <si>
+    <t>Site or application performance doesn't inhibit the user experience (e.g. slow page downloads, long delays).</t>
+  </si>
+  <si>
     <t>La ayuda en línea es concisa, fácil de leer y escrita en un lenguaje fácil de entender</t>
   </si>
   <si>
@@ -1863,13 +1854,22 @@
     <t>Cuando haces una consulta a la ayuda puedes volver al trabajo que estabas haciendo.</t>
   </si>
   <si>
+    <t>Errors and reliabilty issues don't inhibit the user experience.</t>
+  </si>
+  <si>
     <t>Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
   </si>
   <si>
     <t>No da ninguna dirección de correo ni tampoco ninguna ayuda pero continiene un chat de asistente de ayuda.</t>
   </si>
   <si>
+    <t>Possible user configurations (e.g. browsers, resolutions, computer specs) are supported.</t>
+  </si>
+  <si>
     <t>El rendimiento del sitio o la aplicación no inhibe la experiencia del usuario (por ejemplo, descargas lentas de páginas, retrasos prolongados)</t>
+  </si>
+  <si>
+    <t>Overall usability score (out of 100) *</t>
   </si>
   <si>
     <t>El tiempo de respuesta de la página es es bastante bueno y muestra y buen rendimiento.</t>
@@ -2390,6 +2390,15 @@
     <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2408,6 +2417,18 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2416,27 +2437,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2452,6 +2452,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -2509,6 +2512,9 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2517,12 +2523,6 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2892,7 +2892,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" s="17">
         <v>1.0</v>
@@ -2904,18 +2904,18 @@
     </row>
     <row r="3" ht="24.0" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="14"/>
@@ -2923,7 +2923,7 @@
       <c r="M3" s="7"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R3" s="17">
         <v>2.0</v>
@@ -2949,7 +2949,7 @@
       <c r="M4" s="7"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R4" s="17">
         <v>3.0</v>
@@ -2962,18 +2962,18 @@
     <row r="5" ht="36.75" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
@@ -2983,7 +2983,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R5" s="17">
         <v>4.0</v>
@@ -3010,7 +3010,7 @@
       <c r="O6" s="30"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R6" s="17">
         <v>5.0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="34"/>
@@ -3033,23 +3033,23 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R7" s="17">
         <v>0.0</v>
@@ -3082,11 +3082,11 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="str">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="41">
@@ -3159,11 +3159,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="str">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="41">
@@ -3223,7 +3223,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="49"/>
+      <c r="S12" s="52"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -3234,11 +3234,11 @@
         <v>3</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="str">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="41">
@@ -3276,7 +3276,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="49"/>
+      <c r="S13" s="52"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -3305,11 +3305,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="str">
@@ -3322,13 +3322,13 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="50">
+      <c r="K15" s="53">
         <v>3.0</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="54">
         <f>K15/K117</f>
         <v>0.6</v>
       </c>
@@ -3340,7 +3340,7 @@
         <f>M15*L15</f>
         <v>1.8</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="55">
         <f>IF(M15=0,0,L15*MAX(R2:R8))</f>
         <v>3</v>
       </c>
@@ -3373,11 +3373,11 @@
         <v>5</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="str">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="41">
@@ -3416,7 +3416,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="B18" s="53"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="7"/>
       <c r="D18" s="45"/>
       <c r="E18" s="7"/>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="45"/>
@@ -3452,7 +3452,7 @@
       <c r="O19" s="43"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="54"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="35"/>
       <c r="D20" s="45"/>
       <c r="E20" s="7"/>
@@ -3473,11 +3473,11 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="str">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="40" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="41">
@@ -3524,11 +3524,11 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="43"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -3539,11 +3539,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="str">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="40" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="41">
@@ -3606,18 +3606,18 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="40" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="41">
@@ -3643,7 +3643,7 @@
       <c r="R25" s="44"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="B26" s="53"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="7"/>
       <c r="D26" s="45"/>
       <c r="E26" s="7"/>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -3683,9 +3683,9 @@
       <c r="S27" s="44"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="54"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -3707,11 +3707,11 @@
         <v>9</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="str">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="40" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="41">
@@ -3761,11 +3761,11 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="55"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="62"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
@@ -3777,11 +3777,11 @@
         <v>10</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="str">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="40" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="41">
@@ -3840,18 +3840,18 @@
         <v>11</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="40" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="41">
@@ -3897,11 +3897,11 @@
         <v>12</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="str">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="40" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="41">
@@ -3960,11 +3960,11 @@
         <v>13</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="str">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="40" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="41">
@@ -4023,11 +4023,11 @@
         <v>14</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="str">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="48" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="41">
@@ -4077,11 +4077,11 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="55"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="62"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
@@ -4093,11 +4093,11 @@
         <v>15</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="str">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="40" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="41">
@@ -4156,11 +4156,11 @@
         <v>16</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="str">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="40" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="41">
@@ -4219,11 +4219,11 @@
         <v>17</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="str">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="48" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="41">
@@ -4260,7 +4260,7 @@
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="B46" s="53"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="7"/>
       <c r="D46" s="45"/>
       <c r="E46" s="7"/>
@@ -4280,7 +4280,7 @@
         <v>59</v>
       </c>
       <c r="C47" s="35"/>
-      <c r="D47" s="56"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -4294,9 +4294,9 @@
       <c r="O47" s="43"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="54"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -4315,11 +4315,11 @@
         <v>18</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="str">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="40" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="41">
@@ -4378,11 +4378,11 @@
         <v>19</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="47" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="str">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="40" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="41">
@@ -4441,11 +4441,11 @@
         <v>20</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="str">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="40" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="41">
@@ -4504,11 +4504,11 @@
         <v>21</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="str">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="40" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="41">
@@ -4545,7 +4545,7 @@
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="B56" s="53"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="7"/>
       <c r="D56" s="45"/>
       <c r="E56" s="7"/>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C57" s="35"/>
-      <c r="D57" s="56"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="35"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -4579,9 +4579,9 @@
       <c r="O57" s="43"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="54"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="35"/>
-      <c r="D58" s="56"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="35"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4600,11 +4600,11 @@
         <v>22</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="str">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="48" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="41">
@@ -4663,11 +4663,11 @@
         <v>23</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="str">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="48" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="41">
@@ -4726,11 +4726,11 @@
         <v>24</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="str">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="48" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="41">
@@ -4784,10 +4784,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="56"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="35"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -4801,9 +4801,9 @@
       <c r="O65" s="43"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="54"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="56"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="35"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -4822,11 +4822,11 @@
         <v>25</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="str">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="48" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="41">
@@ -4885,11 +4885,11 @@
         <v>26</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="str">
@@ -4900,14 +4900,14 @@
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H69" s="95" t="s">
-        <v>186</v>
+      <c r="H69" s="70" t="s">
+        <v>171</v>
       </c>
       <c r="I69" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="J69" s="95" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="J69" s="70" t="s">
+        <v>171</v>
       </c>
       <c r="K69" s="41">
         <v>2.0</v>
@@ -4952,11 +4952,11 @@
         <v>27</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="str">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="48" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="41">
@@ -5015,11 +5015,11 @@
         <v>28</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="str">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="48" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="41">
@@ -5078,11 +5078,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="str">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="48" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="41">
@@ -5119,7 +5119,7 @@
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="B76" s="53"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="7"/>
       <c r="D76" s="45"/>
       <c r="E76" s="7"/>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="33" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C77" s="35"/>
-      <c r="D77" s="56"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -5153,9 +5153,9 @@
       <c r="O77" s="43"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="B78" s="54"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="56"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -5174,11 +5174,11 @@
         <v>30</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="str">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="48" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="41">
@@ -5237,11 +5237,11 @@
         <v>31</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="str">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="48" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="41">
@@ -5300,11 +5300,11 @@
         <v>32</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="str">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="48" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="41">
@@ -5363,11 +5363,11 @@
         <v>33</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="str">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="48" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="41">
@@ -5404,7 +5404,7 @@
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
-      <c r="B86" s="53"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="7"/>
       <c r="D86" s="45"/>
       <c r="E86" s="7"/>
@@ -5421,10 +5421,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C87" s="35"/>
-      <c r="D87" s="56"/>
+      <c r="D87" s="63"/>
       <c r="E87" s="35"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -5438,9 +5438,9 @@
       <c r="O87" s="43"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="B88" s="54"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="56"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="35"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -5459,11 +5459,11 @@
         <v>34</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="str">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="48" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="41">
@@ -5522,11 +5522,11 @@
         <v>35</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7" t="str">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="48" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="41">
@@ -5585,11 +5585,11 @@
         <v>36</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="str">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="48" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="41">
@@ -5648,11 +5648,11 @@
         <v>37</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="str">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="48" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="41">
@@ -5711,11 +5711,11 @@
         <v>38</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="str">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="41">
@@ -5752,7 +5752,7 @@
       </c>
     </row>
     <row r="98" ht="12.0" customHeight="1">
-      <c r="B98" s="53"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="7"/>
       <c r="D98" s="45"/>
       <c r="E98" s="7"/>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C99" s="35"/>
-      <c r="D99" s="56"/>
+      <c r="D99" s="63"/>
       <c r="E99" s="35"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -5786,9 +5786,9 @@
       <c r="O99" s="43"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="54"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="56"/>
+      <c r="D100" s="63"/>
       <c r="E100" s="35"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -5807,11 +5807,11 @@
         <v>39</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="str">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="41">
@@ -5870,11 +5870,11 @@
         <v>40</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="str">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="41">
@@ -5933,11 +5933,11 @@
         <v>41</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="str">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="41">
@@ -5996,11 +5996,11 @@
         <v>42</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="str">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="41">
@@ -6037,7 +6037,7 @@
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
-      <c r="B108" s="53"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="7"/>
       <c r="D108" s="45"/>
       <c r="E108" s="7"/>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C109" s="35"/>
-      <c r="D109" s="56"/>
+      <c r="D109" s="63"/>
       <c r="E109" s="35"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -6071,9 +6071,9 @@
       <c r="O109" s="43"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="B110" s="54"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="35"/>
-      <c r="D110" s="56"/>
+      <c r="D110" s="63"/>
       <c r="E110" s="35"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -6092,11 +6092,11 @@
         <v>43</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21" t="str">
@@ -6115,19 +6115,19 @@
       <c r="K111" s="30">
         <v>4.0</v>
       </c>
-      <c r="L111" s="70">
+      <c r="L111" s="71">
         <f>K111/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M111" s="71">
+      <c r="M111" s="72">
         <f>VLOOKUP(D111,Q1:R9,2,0)</f>
         <v>5</v>
       </c>
-      <c r="N111" s="71">
+      <c r="N111" s="72">
         <f>M111*L111</f>
         <v>4</v>
       </c>
-      <c r="O111" s="71">
+      <c r="O111" s="72">
         <f>IF(M111=0,0,L111*MAX(R2:R8))</f>
         <v>4</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="A112" s="37"/>
       <c r="B112" s="44"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="72"/>
+      <c r="D112" s="73"/>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
@@ -6155,10 +6155,10 @@
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
       <c r="K112" s="30"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="71"/>
-      <c r="O112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="72"/>
+      <c r="N112" s="72"/>
+      <c r="O112" s="72"/>
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
       <c r="R112" s="21"/>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="21" t="str">
@@ -6200,19 +6200,19 @@
       <c r="K113" s="30">
         <v>4.0</v>
       </c>
-      <c r="L113" s="70">
+      <c r="L113" s="71">
         <f>K113/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M113" s="71">
+      <c r="M113" s="72">
         <f>VLOOKUP(D113,Q1:R9,2,0)</f>
         <v>1</v>
       </c>
-      <c r="N113" s="71">
+      <c r="N113" s="72">
         <f>M113*L113</f>
         <v>0.8</v>
       </c>
-      <c r="O113" s="71">
+      <c r="O113" s="72">
         <f>IF(M113=0,0,L113*MAX(R2:R8))</f>
         <v>4</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="A114" s="37"/>
       <c r="B114" s="44"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="72"/>
+      <c r="D114" s="73"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
@@ -6240,10 +6240,10 @@
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="30"/>
-      <c r="L114" s="70"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
-      <c r="O114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="72"/>
+      <c r="O114" s="72"/>
       <c r="P114" s="21"/>
       <c r="Q114" s="21"/>
       <c r="R114" s="21"/>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21" t="str">
@@ -6285,19 +6285,19 @@
       <c r="K115" s="30">
         <v>3.0</v>
       </c>
-      <c r="L115" s="70">
+      <c r="L115" s="71">
         <f>K115/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M115" s="71">
+      <c r="M115" s="72">
         <f>VLOOKUP(D115,Q1:R9,2,0)</f>
         <v>1</v>
       </c>
-      <c r="N115" s="71">
+      <c r="N115" s="72">
         <f>M115*L115</f>
         <v>0.6</v>
       </c>
-      <c r="O115" s="71">
+      <c r="O115" s="72">
         <f>IF(M115=0,0,L115*MAX(R2:R8))</f>
         <v>3</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="Z115" s="21"/>
     </row>
     <row r="116" ht="12.0" customHeight="1">
-      <c r="B116" s="60"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="7"/>
       <c r="D116" s="45"/>
       <c r="E116" s="7"/>
@@ -6323,48 +6323,48 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-      <c r="K116" s="73"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="73"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
     </row>
     <row r="117" ht="24.0" customHeight="1">
-      <c r="A117" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="B117" s="76"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="78">
+      <c r="A117" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="77"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="79">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
         <v>64.44444444</v>
       </c>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="80" t="str">
+      <c r="E117" s="80"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="81" t="str">
         <f>IF(D117="","","-")</f>
         <v>-</v>
       </c>
-      <c r="I117" s="81" t="str">
+      <c r="I117" s="82" t="str">
         <f>VLOOKUP(J117,'Rating ranges'!A2:B7,2,1)</f>
         <v>Moderate</v>
       </c>
-      <c r="J117" s="96">
+      <c r="J117" s="93">
         <f>IF(D117="",0,D117)</f>
         <v>64.44444444</v>
       </c>
-      <c r="K117" s="73">
+      <c r="K117" s="74">
         <f>MAX(K9:K115)</f>
         <v>5</v>
       </c>
-      <c r="L117" s="73"/>
-      <c r="M117" s="73"/>
-      <c r="N117" s="74">
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="75">
         <f t="shared" ref="N117:O117" si="1">SUM(N9:N115)</f>
         <v>92.8</v>
       </c>
-      <c r="O117" s="74">
+      <c r="O117" s="75">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
@@ -6382,69 +6382,69 @@
       <c r="M118" s="7"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="82" t="str">
+      <c r="A119" s="83" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="83"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="84"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="84"/>
+      <c r="I119" s="85"/>
       <c r="J119" s="7"/>
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
       <c r="M119" s="7"/>
     </row>
     <row r="120" ht="15.0" customHeight="1">
-      <c r="A120" s="85" t="str">
+      <c r="A120" s="86" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="I120" s="86"/>
+      <c r="I120" s="87"/>
       <c r="J120" s="7"/>
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
       <c r="M120" s="7"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="87" t="str">
+      <c r="A121" s="88" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="I121" s="86"/>
+      <c r="I121" s="87"/>
       <c r="J121" s="7"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
       <c r="M121" s="7"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="85" t="str">
+      <c r="A122" s="86" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="I122" s="86"/>
+      <c r="I122" s="87"/>
       <c r="J122" s="7"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
       <c r="M122" s="7"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="88" t="str">
+      <c r="A123" s="89" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="90"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="91"/>
       <c r="J123" s="7"/>
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
@@ -6469,7 +6469,7 @@
       <c r="C125" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="D125" s="91"/>
+      <c r="D125" s="92"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -6482,17 +6482,17 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="7"/>
-      <c r="B126" s="92"/>
+      <c r="B126" s="94"/>
       <c r="C126" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="D126" s="93"/>
-      <c r="E126" s="93"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="93"/>
-      <c r="H126" s="93"/>
-      <c r="I126" s="93"/>
-      <c r="J126" s="94"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="96"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="7"/>
@@ -9641,7 +9641,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9652,7 +9652,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="58"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -9686,7 +9686,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" s="17">
         <v>1.0</v>
@@ -9698,18 +9698,18 @@
     </row>
     <row r="3" ht="24.0" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="14"/>
@@ -9717,7 +9717,7 @@
       <c r="M3" s="7"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R3" s="17">
         <v>2.0</v>
@@ -9743,7 +9743,7 @@
       <c r="M4" s="7"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R4" s="17">
         <v>3.0</v>
@@ -9756,18 +9756,18 @@
     <row r="5" ht="36.75" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
@@ -9777,7 +9777,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R5" s="17">
         <v>4.0</v>
@@ -9804,7 +9804,7 @@
       <c r="O6" s="30"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R6" s="17">
         <v>5.0</v>
@@ -9816,7 +9816,7 @@
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="34"/>
@@ -9827,23 +9827,23 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R7" s="17">
         <v>0.0</v>
@@ -9876,7 +9876,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="47" t="s">
@@ -9951,7 +9951,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="47" t="s">
@@ -10013,7 +10013,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="49"/>
+      <c r="S12" s="52"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -10024,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="47" t="s">
@@ -10064,7 +10064,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="49"/>
+      <c r="S13" s="52"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -10093,7 +10093,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="47" t="s">
@@ -10111,10 +10111,10 @@
       <c r="H15" s="7"/>
       <c r="I15" s="40"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="50">
+      <c r="K15" s="53">
         <v>3.0</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="54">
         <f>K15/K117</f>
         <v>0.6</v>
       </c>
@@ -10126,7 +10126,7 @@
         <f>M15*L15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="55">
         <f>IF(M15=0,0,L15*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="47" t="s">
@@ -10200,7 +10200,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="B18" s="59"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="7"/>
       <c r="D18" s="45"/>
       <c r="E18" s="7"/>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="45"/>
@@ -10236,7 +10236,7 @@
       <c r="O19" s="43"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="54"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="35"/>
       <c r="D20" s="45"/>
       <c r="E20" s="7"/>
@@ -10257,7 +10257,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="47" t="s">
@@ -10306,11 +10306,11 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="43"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -10321,7 +10321,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="47" t="s">
@@ -10386,7 +10386,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="47" t="s">
@@ -10421,7 +10421,7 @@
       <c r="R25" s="44"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="B26" s="53"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="7"/>
       <c r="D26" s="45"/>
       <c r="E26" s="7"/>
@@ -10441,10 +10441,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -10461,9 +10461,9 @@
       <c r="S27" s="44"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="54"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -10485,7 +10485,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="47" t="s">
@@ -10537,11 +10537,11 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="55"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="62"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
@@ -10553,7 +10553,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="47" t="s">
@@ -10614,7 +10614,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="47" t="s">
@@ -10669,7 +10669,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="47" t="s">
@@ -10730,7 +10730,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="47" t="s">
@@ -10791,7 +10791,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="47" t="s">
@@ -10843,11 +10843,11 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="55"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="62"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
@@ -10859,7 +10859,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="47" t="s">
@@ -10920,7 +10920,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="47" t="s">
@@ -10981,7 +10981,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="47" t="s">
@@ -11020,7 +11020,7 @@
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="B46" s="53"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="7"/>
       <c r="D46" s="45"/>
       <c r="E46" s="7"/>
@@ -11040,7 +11040,7 @@
         <v>59</v>
       </c>
       <c r="C47" s="35"/>
-      <c r="D47" s="56"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -11054,9 +11054,9 @@
       <c r="O47" s="43"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="54"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -11075,7 +11075,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="47" t="s">
@@ -11136,7 +11136,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="47" t="s">
@@ -11197,7 +11197,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="47" t="s">
@@ -11258,7 +11258,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="47" t="s">
@@ -11297,7 +11297,7 @@
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="B56" s="53"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="7"/>
       <c r="D56" s="45"/>
       <c r="E56" s="7"/>
@@ -11314,10 +11314,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C57" s="35"/>
-      <c r="D57" s="56"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="35"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -11331,9 +11331,9 @@
       <c r="O57" s="43"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="54"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="35"/>
-      <c r="D58" s="56"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="35"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -11352,7 +11352,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="47" t="s">
@@ -11413,7 +11413,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="47" t="s">
@@ -11474,7 +11474,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="47" t="s">
@@ -11530,10 +11530,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="56"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="35"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -11547,9 +11547,9 @@
       <c r="O65" s="43"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="54"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="56"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="35"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -11568,7 +11568,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="47" t="s">
@@ -11629,7 +11629,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="47" t="s">
@@ -11690,7 +11690,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="47" t="s">
@@ -11751,7 +11751,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="47" t="s">
@@ -11812,7 +11812,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="47" t="s">
@@ -11851,7 +11851,7 @@
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="B76" s="53"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="7"/>
       <c r="D76" s="45"/>
       <c r="E76" s="7"/>
@@ -11868,10 +11868,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="33" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C77" s="35"/>
-      <c r="D77" s="56"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -11885,9 +11885,9 @@
       <c r="O77" s="43"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="B78" s="54"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="56"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -11906,7 +11906,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="47" t="s">
@@ -11967,7 +11967,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="47" t="s">
@@ -12028,7 +12028,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="47" t="s">
@@ -12089,7 +12089,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="47" t="s">
@@ -12128,7 +12128,7 @@
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
-      <c r="B86" s="53"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="7"/>
       <c r="D86" s="45"/>
       <c r="E86" s="7"/>
@@ -12145,10 +12145,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C87" s="35"/>
-      <c r="D87" s="56"/>
+      <c r="D87" s="63"/>
       <c r="E87" s="35"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -12162,9 +12162,9 @@
       <c r="O87" s="43"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="B88" s="54"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="56"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="35"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -12183,7 +12183,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="47" t="s">
@@ -12244,7 +12244,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="47" t="s">
@@ -12305,7 +12305,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="47" t="s">
@@ -12366,7 +12366,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="47" t="s">
@@ -12427,7 +12427,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="47" t="s">
@@ -12466,7 +12466,7 @@
       </c>
     </row>
     <row r="98" ht="12.0" customHeight="1">
-      <c r="B98" s="53"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="7"/>
       <c r="D98" s="45"/>
       <c r="E98" s="7"/>
@@ -12483,10 +12483,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C99" s="35"/>
-      <c r="D99" s="56"/>
+      <c r="D99" s="63"/>
       <c r="E99" s="35"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -12500,9 +12500,9 @@
       <c r="O99" s="43"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="54"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="56"/>
+      <c r="D100" s="63"/>
       <c r="E100" s="35"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -12521,7 +12521,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="47" t="s">
@@ -12582,7 +12582,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="47" t="s">
@@ -12643,7 +12643,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="47" t="s">
@@ -12704,7 +12704,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="47" t="s">
@@ -12743,7 +12743,7 @@
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
-      <c r="B108" s="53"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="7"/>
       <c r="D108" s="45"/>
       <c r="E108" s="7"/>
@@ -12760,10 +12760,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C109" s="35"/>
-      <c r="D109" s="56"/>
+      <c r="D109" s="63"/>
       <c r="E109" s="35"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -12777,9 +12777,9 @@
       <c r="O109" s="43"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="B110" s="54"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="35"/>
-      <c r="D110" s="56"/>
+      <c r="D110" s="63"/>
       <c r="E110" s="35"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -12798,7 +12798,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="44" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="47" t="s">
@@ -12819,19 +12819,19 @@
       <c r="K111" s="30">
         <v>4.0</v>
       </c>
-      <c r="L111" s="70">
+      <c r="L111" s="71">
         <f>K111/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M111" s="71">
+      <c r="M111" s="72">
         <f>VLOOKUP(D111,Q1:R9,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N111" s="71">
+      <c r="N111" s="72">
         <f>M111*L111</f>
         <v>0</v>
       </c>
-      <c r="O111" s="71">
+      <c r="O111" s="72">
         <f>IF(M111=0,0,L111*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -12851,7 +12851,7 @@
       <c r="A112" s="37"/>
       <c r="B112" s="44"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="72"/>
+      <c r="D112" s="73"/>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
@@ -12859,10 +12859,10 @@
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
       <c r="K112" s="30"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="71"/>
-      <c r="O112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="72"/>
+      <c r="N112" s="72"/>
+      <c r="O112" s="72"/>
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
       <c r="R112" s="21"/>
@@ -12881,7 +12881,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="47" t="s">
@@ -12902,19 +12902,19 @@
       <c r="K113" s="30">
         <v>4.0</v>
       </c>
-      <c r="L113" s="70">
+      <c r="L113" s="71">
         <f>K113/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M113" s="71">
+      <c r="M113" s="72">
         <f>VLOOKUP(D113,Q1:R9,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N113" s="71">
+      <c r="N113" s="72">
         <f>M113*L113</f>
         <v>0</v>
       </c>
-      <c r="O113" s="71">
+      <c r="O113" s="72">
         <f>IF(M113=0,0,L113*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -12934,7 +12934,7 @@
       <c r="A114" s="37"/>
       <c r="B114" s="44"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="72"/>
+      <c r="D114" s="73"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
@@ -12942,10 +12942,10 @@
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="30"/>
-      <c r="L114" s="70"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
-      <c r="O114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="72"/>
+      <c r="O114" s="72"/>
       <c r="P114" s="21"/>
       <c r="Q114" s="21"/>
       <c r="R114" s="21"/>
@@ -12964,7 +12964,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="47" t="s">
@@ -12985,19 +12985,19 @@
       <c r="K115" s="30">
         <v>3.0</v>
       </c>
-      <c r="L115" s="70">
+      <c r="L115" s="71">
         <f>K115/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M115" s="71">
+      <c r="M115" s="72">
         <f>VLOOKUP(D115,Q1:R9,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N115" s="71">
+      <c r="N115" s="72">
         <f>M115*L115</f>
         <v>0</v>
       </c>
-      <c r="O115" s="71">
+      <c r="O115" s="72">
         <f>IF(M115=0,0,L115*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -13014,7 +13014,7 @@
       <c r="Z115" s="21"/>
     </row>
     <row r="116" ht="12.0" customHeight="1">
-      <c r="B116" s="60"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="7"/>
       <c r="D116" s="45"/>
       <c r="E116" s="7"/>
@@ -13023,30 +13023,30 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-      <c r="K116" s="73"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="73"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
     </row>
     <row r="117" ht="24.0" customHeight="1">
-      <c r="A117" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="B117" s="76"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="78" t="str">
+      <c r="A117" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="77"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="79" t="str">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
         <v/>
       </c>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="80" t="str">
+      <c r="E117" s="80"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="81" t="str">
         <f>IF(D117="","","-")</f>
         <v/>
       </c>
-      <c r="I117" s="81" t="str">
+      <c r="I117" s="82" t="str">
         <f>VLOOKUP(J117,'Rating ranges'!A2:B7,2,1)</f>
         <v/>
       </c>
@@ -13054,17 +13054,17 @@
         <f>IF(D117="",0,D117)</f>
         <v>0</v>
       </c>
-      <c r="K117" s="73">
+      <c r="K117" s="74">
         <f>MAX(K9:K115)</f>
         <v>5</v>
       </c>
-      <c r="L117" s="73"/>
-      <c r="M117" s="73"/>
-      <c r="N117" s="74">
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="75">
         <f t="shared" ref="N117:O117" si="1">SUM(N9:N115)</f>
         <v>0</v>
       </c>
-      <c r="O117" s="74">
+      <c r="O117" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13082,69 +13082,69 @@
       <c r="M118" s="7"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="82" t="str">
+      <c r="A119" s="83" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="83"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="84"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="84"/>
+      <c r="I119" s="85"/>
       <c r="J119" s="7"/>
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
       <c r="M119" s="7"/>
     </row>
     <row r="120" ht="15.0" customHeight="1">
-      <c r="A120" s="85" t="str">
+      <c r="A120" s="86" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="I120" s="86"/>
+      <c r="I120" s="87"/>
       <c r="J120" s="7"/>
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
       <c r="M120" s="7"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="87" t="str">
+      <c r="A121" s="88" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="I121" s="86"/>
+      <c r="I121" s="87"/>
       <c r="J121" s="7"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
       <c r="M121" s="7"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="85" t="str">
+      <c r="A122" s="86" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="I122" s="86"/>
+      <c r="I122" s="87"/>
       <c r="J122" s="7"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
       <c r="M122" s="7"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="88" t="str">
+      <c r="A123" s="89" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="90"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="91"/>
       <c r="J123" s="7"/>
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
@@ -13163,7 +13163,7 @@
       <c r="M124" s="7"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="D125" s="91"/>
+      <c r="D125" s="92"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -13176,15 +13176,15 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="7"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="93"/>
-      <c r="D126" s="93"/>
-      <c r="E126" s="93"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="93"/>
-      <c r="H126" s="93"/>
-      <c r="I126" s="93"/>
-      <c r="J126" s="94"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="96"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="7"/>
@@ -16287,20 +16287,20 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="60"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="33" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="24.75" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>13</v>
+      <c r="A3" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -16326,71 +16326,71 @@
       <c r="W3" s="21"/>
     </row>
     <row r="4" ht="51.0" customHeight="1">
-      <c r="A4" s="62">
+      <c r="A4" s="58">
         <v>1.0</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>64</v>
+      <c r="B4" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="62">
+      <c r="A5" s="58">
         <f t="shared" ref="A5:A8" si="1">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>64</v>
+      <c r="B5" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="62">
+      <c r="A6" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>67</v>
+      <c r="B6" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="38.25" customHeight="1">
-      <c r="A7" s="62">
+      <c r="A7" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>69</v>
+      <c r="B7" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="62">
+      <c r="A8" s="58">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>69</v>
+      <c r="B8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="53"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="61" t="s">
-        <v>30</v>
+      <c r="A10" s="51" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -16416,48 +16416,48 @@
       <c r="W10" s="21"/>
     </row>
     <row r="11" ht="38.25" customHeight="1">
-      <c r="A11" s="62">
+      <c r="A11" s="58">
         <f>A8+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>69</v>
+      <c r="B11" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="51.0" customHeight="1">
-      <c r="A12" s="62">
+      <c r="A12" s="58">
         <f t="shared" ref="A12:A13" si="2">A11+1</f>
         <v>7</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>67</v>
+      <c r="B12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="38.25" customHeight="1">
-      <c r="A13" s="62">
+      <c r="A13" s="58">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>69</v>
+      <c r="B13" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="53"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="21"/>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="61" t="s">
-        <v>37</v>
+      <c r="A15" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -16483,119 +16483,119 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" ht="38.25" customHeight="1">
-      <c r="A16" s="62">
+      <c r="A16" s="58">
         <f>A13+1</f>
         <v>9</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>75</v>
+      <c r="B16" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="51.0" customHeight="1">
-      <c r="A17" s="62">
+      <c r="A17" s="58">
         <f t="shared" ref="A17:A24" si="3">A16+1</f>
         <v>10</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>67</v>
+      <c r="B17" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="38.25" customHeight="1">
-      <c r="A18" s="62">
+      <c r="A18" s="58">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>69</v>
+      <c r="B18" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="51.0" customHeight="1">
-      <c r="A19" s="62">
+      <c r="A19" s="58">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>64</v>
+      <c r="B19" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="51.0" customHeight="1">
-      <c r="A20" s="62">
+      <c r="A20" s="58">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>69</v>
+      <c r="B20" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="38.25" customHeight="1">
-      <c r="A21" s="62">
+      <c r="A21" s="58">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>67</v>
+      <c r="B21" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="62">
+      <c r="A22" s="58">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>75</v>
+      <c r="B22" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" s="62">
+      <c r="A23" s="58">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>75</v>
+      <c r="B23" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="62">
+      <c r="A24" s="58">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>84</v>
+      <c r="B24" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="53"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="21"/>
     </row>
     <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="21"/>
@@ -16622,60 +16622,60 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" ht="38.25" customHeight="1">
-      <c r="A27" s="62">
+      <c r="A27" s="58">
         <f>A24+1</f>
         <v>18</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>67</v>
+      <c r="B27" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="38.25" customHeight="1">
-      <c r="A28" s="62">
+      <c r="A28" s="58">
         <f t="shared" ref="A28:A30" si="4">A27+1</f>
         <v>19</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>67</v>
+      <c r="B28" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="51.0" customHeight="1">
-      <c r="A29" s="62">
+      <c r="A29" s="58">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>75</v>
+      <c r="B29" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="38.25" customHeight="1">
-      <c r="A30" s="62">
+      <c r="A30" s="58">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>67</v>
+      <c r="B30" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="53"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="21"/>
     </row>
     <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="61" t="s">
-        <v>89</v>
+      <c r="A32" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -16701,48 +16701,48 @@
       <c r="W32" s="21"/>
     </row>
     <row r="33" ht="38.25" customHeight="1">
-      <c r="A33" s="62">
+      <c r="A33" s="58">
         <f>A30+1</f>
         <v>22</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>67</v>
+      <c r="B33" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="51.0" customHeight="1">
-      <c r="A34" s="62">
+      <c r="A34" s="58">
         <f t="shared" ref="A34:A35" si="5">A33+1</f>
         <v>23</v>
       </c>
-      <c r="B34" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>69</v>
+      <c r="B34" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="38.25" customHeight="1">
-      <c r="A35" s="62">
+      <c r="A35" s="58">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>84</v>
+      <c r="B35" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="B36" s="53"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="21"/>
     </row>
     <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="61" t="s">
-        <v>93</v>
+      <c r="A37" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -16768,72 +16768,72 @@
       <c r="W37" s="21"/>
     </row>
     <row r="38" ht="38.25" customHeight="1">
-      <c r="A38" s="62">
+      <c r="A38" s="58">
         <f>A35+1</f>
         <v>25</v>
       </c>
-      <c r="B38" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="64" t="s">
+      <c r="B38" s="59" t="s">
         <v>69</v>
       </c>
+      <c r="C38" s="60" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" ht="63.75" customHeight="1">
-      <c r="A39" s="62">
+      <c r="A39" s="58">
         <f t="shared" ref="A39:A42" si="6">A38+1</f>
         <v>26</v>
       </c>
-      <c r="B39" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>75</v>
+      <c r="B39" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="38.25" customHeight="1">
-      <c r="A40" s="62">
+      <c r="A40" s="58">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="B40" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>75</v>
+      <c r="B40" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="63.75" customHeight="1">
-      <c r="A41" s="62">
+      <c r="A41" s="58">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="B41" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>69</v>
+      <c r="B41" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="38.25" customHeight="1">
-      <c r="A42" s="62">
+      <c r="A42" s="58">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="B42" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>69</v>
+      <c r="B42" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="B43" s="53"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="21"/>
     </row>
     <row r="44" ht="24.75" customHeight="1">
-      <c r="A44" s="61" t="s">
-        <v>99</v>
+      <c r="A44" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -16859,60 +16859,60 @@
       <c r="W44" s="21"/>
     </row>
     <row r="45" ht="38.25" customHeight="1">
-      <c r="A45" s="62">
+      <c r="A45" s="58">
         <f>A42+1</f>
         <v>30</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>67</v>
+      <c r="B45" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="38.25" customHeight="1">
-      <c r="A46" s="62">
+      <c r="A46" s="58">
         <f t="shared" ref="A46:A48" si="7">A45+1</f>
         <v>31</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>69</v>
+      <c r="B46" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="51.0" customHeight="1">
-      <c r="A47" s="62">
+      <c r="A47" s="58">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>69</v>
+      <c r="B47" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="A48" s="62">
+      <c r="A48" s="58">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="B48" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>69</v>
+      <c r="B48" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="B49" s="53"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="21"/>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="A50" s="61" t="s">
-        <v>104</v>
+      <c r="A50" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -16938,72 +16938,72 @@
       <c r="W50" s="21"/>
     </row>
     <row r="51" ht="51.0" customHeight="1">
-      <c r="A51" s="62">
+      <c r="A51" s="58">
         <f>A48+1</f>
         <v>34</v>
       </c>
-      <c r="B51" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>64</v>
+      <c r="B51" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="38.25" customHeight="1">
-      <c r="A52" s="62">
+      <c r="A52" s="58">
         <f t="shared" ref="A52:A55" si="8">A51+1</f>
         <v>35</v>
       </c>
-      <c r="B52" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>75</v>
+      <c r="B52" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
-      <c r="A53" s="62">
+      <c r="A53" s="58">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="B53" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>67</v>
+      <c r="B53" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="38.25" customHeight="1">
-      <c r="A54" s="62">
+      <c r="A54" s="58">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="B54" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>69</v>
+      <c r="B54" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
-      <c r="A55" s="62">
+      <c r="A55" s="58">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="B55" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>69</v>
+      <c r="B55" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="B56" s="53"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="21"/>
     </row>
     <row r="57" ht="24.75" customHeight="1">
-      <c r="A57" s="61" t="s">
-        <v>110</v>
+      <c r="A57" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -17029,60 +17029,60 @@
       <c r="W57" s="21"/>
     </row>
     <row r="58" ht="51.0" customHeight="1">
-      <c r="A58" s="62">
+      <c r="A58" s="58">
         <f>A55+1</f>
         <v>39</v>
       </c>
-      <c r="B58" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>67</v>
+      <c r="B58" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="38.25" customHeight="1">
-      <c r="A59" s="62">
+      <c r="A59" s="58">
         <f t="shared" ref="A59:A61" si="9">A58+1</f>
         <v>40</v>
       </c>
-      <c r="B59" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>69</v>
+      <c r="B59" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="51.0" customHeight="1">
-      <c r="A60" s="62">
+      <c r="A60" s="58">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="B60" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>69</v>
+      <c r="B60" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="38.25" customHeight="1">
-      <c r="A61" s="62">
+      <c r="A61" s="58">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="B61" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="64" t="s">
-        <v>75</v>
+      <c r="B61" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="B62" s="53"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="21"/>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="A63" s="61" t="s">
-        <v>115</v>
+      <c r="A63" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -17108,840 +17108,840 @@
       <c r="W63" s="21"/>
     </row>
     <row r="64" ht="51.0" customHeight="1">
-      <c r="A64" s="62">
+      <c r="A64" s="58">
         <f>A61+1</f>
         <v>43</v>
       </c>
-      <c r="B64" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>67</v>
+      <c r="B64" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
-      <c r="A65" s="62">
+      <c r="A65" s="58">
         <f t="shared" ref="A65:A66" si="10">A64+1</f>
         <v>44</v>
       </c>
-      <c r="B65" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="64" t="s">
-        <v>69</v>
+      <c r="B65" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="51.0" customHeight="1">
-      <c r="A66" s="62">
+      <c r="A66" s="58">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="B66" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="64" t="s">
-        <v>69</v>
+      <c r="B66" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="7"/>
-      <c r="B67" s="60"/>
+      <c r="B67" s="50"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="7"/>
-      <c r="B68" s="60"/>
+      <c r="B68" s="50"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="7"/>
-      <c r="B69" s="60"/>
+      <c r="B69" s="50"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" s="60"/>
+      <c r="B70" s="50"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="B71" s="60"/>
+      <c r="B71" s="50"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="7"/>
-      <c r="B72" s="60"/>
+      <c r="B72" s="50"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="7"/>
-      <c r="B73" s="60"/>
+      <c r="B73" s="50"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="7"/>
-      <c r="B74" s="60"/>
+      <c r="B74" s="50"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="7"/>
-      <c r="B75" s="60"/>
+      <c r="B75" s="50"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="7"/>
-      <c r="B76" s="60"/>
+      <c r="B76" s="50"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="7"/>
-      <c r="B77" s="60"/>
+      <c r="B77" s="50"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="7"/>
-      <c r="B78" s="60"/>
+      <c r="B78" s="50"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="7"/>
-      <c r="B79" s="60"/>
+      <c r="B79" s="50"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="7"/>
-      <c r="B80" s="60"/>
+      <c r="B80" s="50"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="7"/>
-      <c r="B81" s="60"/>
+      <c r="B81" s="50"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="7"/>
-      <c r="B82" s="60"/>
+      <c r="B82" s="50"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="7"/>
-      <c r="B83" s="60"/>
+      <c r="B83" s="50"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="7"/>
-      <c r="B84" s="60"/>
+      <c r="B84" s="50"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="7"/>
-      <c r="B85" s="60"/>
+      <c r="B85" s="50"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="7"/>
-      <c r="B86" s="60"/>
+      <c r="B86" s="50"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="7"/>
-      <c r="B87" s="60"/>
+      <c r="B87" s="50"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="7"/>
-      <c r="B88" s="60"/>
+      <c r="B88" s="50"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="7"/>
-      <c r="B89" s="60"/>
+      <c r="B89" s="50"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="7"/>
-      <c r="B90" s="60"/>
+      <c r="B90" s="50"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="7"/>
-      <c r="B91" s="60"/>
+      <c r="B91" s="50"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="7"/>
-      <c r="B92" s="60"/>
+      <c r="B92" s="50"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="7"/>
-      <c r="B93" s="60"/>
+      <c r="B93" s="50"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="7"/>
-      <c r="B94" s="60"/>
+      <c r="B94" s="50"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="7"/>
-      <c r="B95" s="60"/>
+      <c r="B95" s="50"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="7"/>
-      <c r="B96" s="60"/>
+      <c r="B96" s="50"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="7"/>
-      <c r="B97" s="60"/>
+      <c r="B97" s="50"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="60"/>
+      <c r="B98" s="50"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="7"/>
-      <c r="B99" s="60"/>
+      <c r="B99" s="50"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="7"/>
-      <c r="B100" s="60"/>
+      <c r="B100" s="50"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="7"/>
-      <c r="B101" s="60"/>
+      <c r="B101" s="50"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="7"/>
-      <c r="B102" s="60"/>
+      <c r="B102" s="50"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="7"/>
-      <c r="B103" s="60"/>
+      <c r="B103" s="50"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="7"/>
-      <c r="B104" s="60"/>
+      <c r="B104" s="50"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="7"/>
-      <c r="B105" s="60"/>
+      <c r="B105" s="50"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="7"/>
-      <c r="B106" s="60"/>
+      <c r="B106" s="50"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="7"/>
-      <c r="B107" s="60"/>
+      <c r="B107" s="50"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="7"/>
-      <c r="B108" s="60"/>
+      <c r="B108" s="50"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="7"/>
-      <c r="B109" s="60"/>
+      <c r="B109" s="50"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="7"/>
-      <c r="B110" s="60"/>
+      <c r="B110" s="50"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="7"/>
-      <c r="B111" s="60"/>
+      <c r="B111" s="50"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="7"/>
-      <c r="B112" s="60"/>
+      <c r="B112" s="50"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="7"/>
-      <c r="B113" s="60"/>
+      <c r="B113" s="50"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="7"/>
-      <c r="B114" s="60"/>
+      <c r="B114" s="50"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="7"/>
-      <c r="B115" s="60"/>
+      <c r="B115" s="50"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="7"/>
-      <c r="B116" s="60"/>
+      <c r="B116" s="50"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="7"/>
-      <c r="B117" s="60"/>
+      <c r="B117" s="50"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="7"/>
-      <c r="B118" s="60"/>
+      <c r="B118" s="50"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="7"/>
-      <c r="B119" s="60"/>
+      <c r="B119" s="50"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="7"/>
-      <c r="B120" s="60"/>
+      <c r="B120" s="50"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="7"/>
-      <c r="B121" s="60"/>
+      <c r="B121" s="50"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="7"/>
-      <c r="B122" s="60"/>
+      <c r="B122" s="50"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="7"/>
-      <c r="B123" s="60"/>
+      <c r="B123" s="50"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="7"/>
-      <c r="B124" s="60"/>
+      <c r="B124" s="50"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="7"/>
-      <c r="B125" s="60"/>
+      <c r="B125" s="50"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="7"/>
-      <c r="B126" s="60"/>
+      <c r="B126" s="50"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="7"/>
-      <c r="B127" s="60"/>
+      <c r="B127" s="50"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="7"/>
-      <c r="B128" s="60"/>
+      <c r="B128" s="50"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="7"/>
-      <c r="B129" s="60"/>
+      <c r="B129" s="50"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="7"/>
-      <c r="B130" s="60"/>
+      <c r="B130" s="50"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="7"/>
-      <c r="B131" s="60"/>
+      <c r="B131" s="50"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="7"/>
-      <c r="B132" s="60"/>
+      <c r="B132" s="50"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="7"/>
-      <c r="B133" s="60"/>
+      <c r="B133" s="50"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="7"/>
-      <c r="B134" s="60"/>
+      <c r="B134" s="50"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="7"/>
-      <c r="B135" s="60"/>
+      <c r="B135" s="50"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="7"/>
-      <c r="B136" s="60"/>
+      <c r="B136" s="50"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="7"/>
-      <c r="B137" s="60"/>
+      <c r="B137" s="50"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="7"/>
-      <c r="B138" s="60"/>
+      <c r="B138" s="50"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="7"/>
-      <c r="B139" s="60"/>
+      <c r="B139" s="50"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="7"/>
-      <c r="B140" s="60"/>
+      <c r="B140" s="50"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="7"/>
-      <c r="B141" s="60"/>
+      <c r="B141" s="50"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="7"/>
-      <c r="B142" s="60"/>
+      <c r="B142" s="50"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="7"/>
-      <c r="B143" s="60"/>
+      <c r="B143" s="50"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="7"/>
-      <c r="B144" s="60"/>
+      <c r="B144" s="50"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="7"/>
-      <c r="B145" s="60"/>
+      <c r="B145" s="50"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="7"/>
-      <c r="B146" s="60"/>
+      <c r="B146" s="50"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="7"/>
-      <c r="B147" s="60"/>
+      <c r="B147" s="50"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="7"/>
-      <c r="B148" s="60"/>
+      <c r="B148" s="50"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="7"/>
-      <c r="B149" s="60"/>
+      <c r="B149" s="50"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="7"/>
-      <c r="B150" s="60"/>
+      <c r="B150" s="50"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="7"/>
-      <c r="B151" s="60"/>
+      <c r="B151" s="50"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="7"/>
-      <c r="B152" s="60"/>
+      <c r="B152" s="50"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="7"/>
-      <c r="B153" s="60"/>
+      <c r="B153" s="50"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="7"/>
-      <c r="B154" s="60"/>
+      <c r="B154" s="50"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="7"/>
-      <c r="B155" s="60"/>
+      <c r="B155" s="50"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="7"/>
-      <c r="B156" s="60"/>
+      <c r="B156" s="50"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="7"/>
-      <c r="B157" s="60"/>
+      <c r="B157" s="50"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="7"/>
-      <c r="B158" s="60"/>
+      <c r="B158" s="50"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="7"/>
-      <c r="B159" s="60"/>
+      <c r="B159" s="50"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="7"/>
-      <c r="B160" s="60"/>
+      <c r="B160" s="50"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="7"/>
-      <c r="B161" s="60"/>
+      <c r="B161" s="50"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="7"/>
-      <c r="B162" s="60"/>
+      <c r="B162" s="50"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="7"/>
-      <c r="B163" s="60"/>
+      <c r="B163" s="50"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="7"/>
-      <c r="B164" s="60"/>
+      <c r="B164" s="50"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="7"/>
-      <c r="B165" s="60"/>
+      <c r="B165" s="50"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="7"/>
-      <c r="B166" s="60"/>
+      <c r="B166" s="50"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="7"/>
-      <c r="B167" s="60"/>
+      <c r="B167" s="50"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="7"/>
-      <c r="B168" s="60"/>
+      <c r="B168" s="50"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="7"/>
-      <c r="B169" s="60"/>
+      <c r="B169" s="50"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="7"/>
-      <c r="B170" s="60"/>
+      <c r="B170" s="50"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="7"/>
-      <c r="B171" s="60"/>
+      <c r="B171" s="50"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="7"/>
-      <c r="B172" s="60"/>
+      <c r="B172" s="50"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="7"/>
-      <c r="B173" s="60"/>
+      <c r="B173" s="50"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="7"/>
-      <c r="B174" s="60"/>
+      <c r="B174" s="50"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="7"/>
-      <c r="B175" s="60"/>
+      <c r="B175" s="50"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="7"/>
-      <c r="B176" s="60"/>
+      <c r="B176" s="50"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="7"/>
-      <c r="B177" s="60"/>
+      <c r="B177" s="50"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="7"/>
-      <c r="B178" s="60"/>
+      <c r="B178" s="50"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="7"/>
-      <c r="B179" s="60"/>
+      <c r="B179" s="50"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="7"/>
-      <c r="B180" s="60"/>
+      <c r="B180" s="50"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="7"/>
-      <c r="B181" s="60"/>
+      <c r="B181" s="50"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="7"/>
-      <c r="B182" s="60"/>
+      <c r="B182" s="50"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="7"/>
-      <c r="B183" s="60"/>
+      <c r="B183" s="50"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="7"/>
-      <c r="B184" s="60"/>
+      <c r="B184" s="50"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="7"/>
-      <c r="B185" s="60"/>
+      <c r="B185" s="50"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="7"/>
-      <c r="B186" s="60"/>
+      <c r="B186" s="50"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="7"/>
-      <c r="B187" s="60"/>
+      <c r="B187" s="50"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="7"/>
-      <c r="B188" s="60"/>
+      <c r="B188" s="50"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="7"/>
-      <c r="B189" s="60"/>
+      <c r="B189" s="50"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="7"/>
-      <c r="B190" s="60"/>
+      <c r="B190" s="50"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="7"/>
-      <c r="B191" s="60"/>
+      <c r="B191" s="50"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="7"/>
-      <c r="B192" s="60"/>
+      <c r="B192" s="50"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="7"/>
-      <c r="B193" s="60"/>
+      <c r="B193" s="50"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="7"/>
-      <c r="B194" s="60"/>
+      <c r="B194" s="50"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="7"/>
-      <c r="B195" s="60"/>
+      <c r="B195" s="50"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="7"/>
-      <c r="B196" s="60"/>
+      <c r="B196" s="50"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="7"/>
-      <c r="B197" s="60"/>
+      <c r="B197" s="50"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="7"/>
-      <c r="B198" s="60"/>
+      <c r="B198" s="50"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="7"/>
-      <c r="B199" s="60"/>
+      <c r="B199" s="50"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="7"/>
-      <c r="B200" s="60"/>
+      <c r="B200" s="50"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="7"/>
-      <c r="B201" s="60"/>
+      <c r="B201" s="50"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="7"/>
-      <c r="B202" s="60"/>
+      <c r="B202" s="50"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="7"/>
-      <c r="B203" s="60"/>
+      <c r="B203" s="50"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="7"/>
-      <c r="B204" s="60"/>
+      <c r="B204" s="50"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="7"/>
-      <c r="B205" s="60"/>
+      <c r="B205" s="50"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="7"/>
-      <c r="B206" s="60"/>
+      <c r="B206" s="50"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="7"/>
-      <c r="B207" s="60"/>
+      <c r="B207" s="50"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="7"/>
-      <c r="B208" s="60"/>
+      <c r="B208" s="50"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="7"/>
-      <c r="B209" s="60"/>
+      <c r="B209" s="50"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="7"/>
-      <c r="B210" s="60"/>
+      <c r="B210" s="50"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="7"/>
-      <c r="B211" s="60"/>
+      <c r="B211" s="50"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="7"/>
-      <c r="B212" s="60"/>
+      <c r="B212" s="50"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="7"/>
-      <c r="B213" s="60"/>
+      <c r="B213" s="50"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="7"/>
-      <c r="B214" s="60"/>
+      <c r="B214" s="50"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="7"/>
-      <c r="B215" s="60"/>
+      <c r="B215" s="50"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="7"/>
-      <c r="B216" s="60"/>
+      <c r="B216" s="50"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="7"/>
-      <c r="B217" s="60"/>
+      <c r="B217" s="50"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="7"/>
-      <c r="B218" s="60"/>
+      <c r="B218" s="50"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="7"/>
-      <c r="B219" s="60"/>
+      <c r="B219" s="50"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="7"/>
-      <c r="B220" s="60"/>
+      <c r="B220" s="50"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="7"/>
-      <c r="B221" s="60"/>
+      <c r="B221" s="50"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="7"/>
-      <c r="B222" s="60"/>
+      <c r="B222" s="50"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="7"/>
-      <c r="B223" s="60"/>
+      <c r="B223" s="50"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="7"/>
-      <c r="B224" s="60"/>
+      <c r="B224" s="50"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="7"/>
-      <c r="B225" s="60"/>
+      <c r="B225" s="50"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="7"/>
-      <c r="B226" s="60"/>
+      <c r="B226" s="50"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="7"/>
-      <c r="B227" s="60"/>
+      <c r="B227" s="50"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="7"/>
-      <c r="B228" s="60"/>
+      <c r="B228" s="50"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="7"/>
-      <c r="B229" s="60"/>
+      <c r="B229" s="50"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="7"/>
-      <c r="B230" s="60"/>
+      <c r="B230" s="50"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="7"/>
-      <c r="B231" s="60"/>
+      <c r="B231" s="50"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="7"/>
-      <c r="B232" s="60"/>
+      <c r="B232" s="50"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="7"/>
-      <c r="B233" s="60"/>
+      <c r="B233" s="50"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="7"/>
-      <c r="B234" s="60"/>
+      <c r="B234" s="50"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="7"/>
-      <c r="B235" s="60"/>
+      <c r="B235" s="50"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="7"/>
-      <c r="B236" s="60"/>
+      <c r="B236" s="50"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="7"/>
-      <c r="B237" s="60"/>
+      <c r="B237" s="50"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="7"/>
-      <c r="B238" s="60"/>
+      <c r="B238" s="50"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="7"/>
-      <c r="B239" s="60"/>
+      <c r="B239" s="50"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="7"/>
-      <c r="B240" s="60"/>
+      <c r="B240" s="50"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="7"/>
-      <c r="B241" s="60"/>
+      <c r="B241" s="50"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="7"/>
-      <c r="B242" s="60"/>
+      <c r="B242" s="50"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="7"/>
-      <c r="B243" s="60"/>
+      <c r="B243" s="50"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="7"/>
-      <c r="B244" s="60"/>
+      <c r="B244" s="50"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="7"/>
-      <c r="B245" s="60"/>
+      <c r="B245" s="50"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="7"/>
-      <c r="B246" s="60"/>
+      <c r="B246" s="50"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="7"/>
-      <c r="B247" s="60"/>
+      <c r="B247" s="50"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="7"/>
-      <c r="B248" s="60"/>
+      <c r="B248" s="50"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="7"/>
-      <c r="B249" s="60"/>
+      <c r="B249" s="50"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="7"/>
-      <c r="B250" s="60"/>
+      <c r="B250" s="50"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="7"/>
-      <c r="B251" s="60"/>
+      <c r="B251" s="50"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="7"/>
-      <c r="B252" s="60"/>
+      <c r="B252" s="50"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="7"/>
-      <c r="B253" s="60"/>
+      <c r="B253" s="50"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="7"/>
-      <c r="B254" s="60"/>
+      <c r="B254" s="50"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="7"/>
-      <c r="B255" s="60"/>
+      <c r="B255" s="50"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="7"/>
-      <c r="B256" s="60"/>
+      <c r="B256" s="50"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="7"/>
-      <c r="B257" s="60"/>
+      <c r="B257" s="50"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="7"/>
-      <c r="B258" s="60"/>
+      <c r="B258" s="50"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="7"/>
-      <c r="B259" s="60"/>
+      <c r="B259" s="50"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="7"/>
-      <c r="B260" s="60"/>
+      <c r="B260" s="50"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="7"/>
-      <c r="B261" s="60"/>
+      <c r="B261" s="50"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="7"/>
-      <c r="B262" s="60"/>
+      <c r="B262" s="50"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="7"/>
-      <c r="B263" s="60"/>
+      <c r="B263" s="50"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="7"/>
-      <c r="B264" s="60"/>
+      <c r="B264" s="50"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="7"/>
-      <c r="B265" s="60"/>
+      <c r="B265" s="50"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="7"/>
-      <c r="B266" s="60"/>
+      <c r="B266" s="50"/>
     </row>
     <row r="267" ht="15.75" customHeight="1"/>
     <row r="268" ht="15.75" customHeight="1"/>
@@ -18713,13 +18713,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -18736,10 +18736,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D3" s="68">
         <f>A4</f>
@@ -18751,17 +18751,17 @@
         <v>29.0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D4" s="68">
         <f t="shared" ref="D4:D7" si="1">A4</f>
         <v>29</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F4" s="68">
         <f t="shared" ref="F4:F6" si="2">A5</f>
@@ -18773,17 +18773,17 @@
         <v>49.0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D5" s="68">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" s="68">
         <f t="shared" si="2"/>
@@ -18795,17 +18795,17 @@
         <v>69.0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D6" s="68">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F6" s="68">
         <f t="shared" si="2"/>
@@ -18817,10 +18817,10 @@
         <v>89.0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D7" s="68">
         <f t="shared" si="1"/>
